--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان احمد صابر حامد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Saber Hamed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4220129</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.0305904282</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45912.0305904282</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -102,6 +102,15 @@
     <x:t>Shehab Ashraf Taha Ghalab</x:t>
   </x:si>
   <x:si>
+    <x:t>4220120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاصم على محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assem Ali Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220178</x:t>
   </x:si>
   <x:si>
@@ -156,15 +165,6 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد السيد ابو النصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220311</x:t>
   </x:si>
   <x:si>
@@ -217,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Malek Sameh Esmael Abdelhameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايهاب سعيد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ehab Said El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220277</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1058,7 +1067,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.0305904282</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45912.0305904282</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -73,15 +73,6 @@
   </x:si>
   <x:si>
     <x:t>Khaled ashraf wafa mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا عاطف سعد عرفه موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
     <x:t>1210232</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -971,7 +962,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6650867245</x:v>
+        <x:v>45906.6663643519</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1003,7 +994,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6663643519</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1035,7 +1026,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1067,7 +1058,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1099,7 +1090,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1131,7 +1122,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45906.8860377662</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.8860377662</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45912.0305904282</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45912.0305904282</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,30 +60,21 @@
     <x:t>Ahmed Medhat Abdel Aziz Ali Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1220166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جولى حازم شوقى سليمان داود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julie hazem shawky soliman Dawoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220116</x:t>
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
   </x:si>
   <x:si>
-    <x:t>1220008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد اشرف وفا محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled ashraf wafa mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200416</x:t>
   </x:si>
   <x:si>
@@ -102,15 +93,6 @@
     <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220181</x:t>
   </x:si>
   <x:si>
@@ -156,6 +138,15 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220311</x:t>
   </x:si>
   <x:si>
@@ -165,15 +156,6 @@
     <x:t>Fatmaelzahraa Ashraf Abdalla Soliman</x:t>
   </x:si>
   <x:si>
-    <x:t>1210409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220136</x:t>
   </x:si>
   <x:si>
@@ -201,15 +183,6 @@
     <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مالك سامح اسماعيل عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malek Sameh Esmael Abdelhameed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220141</x:t>
   </x:si>
   <x:si>
@@ -228,15 +201,6 @@
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220200</x:t>
   </x:si>
   <x:si>
@@ -255,22 +219,13 @@
     <x:t>Marwan Mohamed Ashour Hassanin</x:t>
   </x:si>
   <x:si>
-    <x:t>1210307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mosaab Mohammed Abdella Ali</x:t>
+    <x:t>1220144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
   </x:si>
   <x:si>
     <x:t>1200305</x:t>
@@ -413,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -896,9 +851,11 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.5531835301</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -921,16 +878,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45906.6653211806</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -962,7 +917,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6663643519</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -994,7 +949,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1026,7 +981,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1058,7 +1013,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1045,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1077,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1109,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1141,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.8860377662</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.8860377662</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45927.4749263079</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1525,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45912.0305904282</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1587,166 +1542,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6648384606</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6651516551</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6647594907</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45912.0305904282</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>ARWA MOHAMED MAHMOUD MOHAMED IBRAHIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
     <x:t>1200330</x:t>
@@ -368,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -791,7 +800,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6719637732</x:v>
+        <x:v>45927.7824798958</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -823,7 +832,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45906.6719637732</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +864,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5531835301</x:v>
+        <x:v>45906.6651380787</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -883,9 +892,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.7612845255</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -908,16 +919,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -949,7 +958,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -981,7 +990,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1013,7 +1022,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1045,7 +1054,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1109,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4154049769</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1237,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.8860377662</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.8860377662</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4749263079</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45927.4749263079</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.0305904282</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1551,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45912.0305904282</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1220158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد هاني محمد حلمي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210182</x:t>
   </x:si>
   <x:si>
@@ -199,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ehab Said El Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد صبرى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220277</x:t>
@@ -377,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -768,7 +786,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45928.6013799421</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -800,7 +818,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.7824798958</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -832,7 +850,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6719637732</x:v>
+        <x:v>45927.7824798958</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -864,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45906.6719637732</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -896,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.7612845255</x:v>
+        <x:v>45906.6651380787</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -924,9 +942,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.7612845255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -949,16 +969,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -990,7 +1008,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1022,7 +1040,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1054,7 +1072,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1086,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1182,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4154049769</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.8860377662</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.8860377662</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45928.5462357986</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4749263079</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45927.4749263079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.0305904282</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1601,70 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.4153402431</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45912.0305904282</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35515.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد صبرى محمد سالم النحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Sabry Mohamed Salem Elnahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>4230142</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -882,7 +873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6719637732</x:v>
+        <x:v>45906.6651380787</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +905,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45927.7612845255</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -942,11 +933,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45927.7612845255</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -969,14 +958,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,7 +999,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,7 +1031,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1063,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1095,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1127,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4154049769</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45906.8860377662</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.8860377662</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45928.5462357986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.5462357986</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45927.4749263079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4749263079</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45912.0305904282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.0305904282</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
